--- a/public/MENU_DATA.xlsx
+++ b/public/MENU_DATA.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kang-seokmin/MyProjects/dol2156/base-front/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kang-seokmin/MyProjects/base-nextjs/public/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F9ADA63A-8E14-CB4A-9BDD-8D8275398776}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{081C7AA5-EB7A-3646-975B-D46D708F9701}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-38400" yWindow="500" windowWidth="38400" windowHeight="19400" xr2:uid="{546758EE-569E-9D45-A59F-0BD70D00A04F}"/>
   </bookViews>
@@ -742,14 +742,15 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G7" sqref="G7"/>
+      <selection pane="bottomLeft" activeCell="F7" sqref="F7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="23"/>
   <cols>
-    <col min="1" max="5" width="30.7109375" style="1" customWidth="1"/>
-    <col min="6" max="6" width="61.28515625" style="1" customWidth="1"/>
-    <col min="7" max="7" width="32.85546875" style="1" customWidth="1"/>
+    <col min="1" max="4" width="30.7109375" style="1" customWidth="1"/>
+    <col min="5" max="5" width="32.85546875" style="1" customWidth="1"/>
+    <col min="6" max="6" width="30.7109375" style="1" customWidth="1"/>
+    <col min="7" max="7" width="61.28515625" style="1" customWidth="1"/>
     <col min="8" max="16384" width="10.7109375" style="1"/>
   </cols>
   <sheetData>
@@ -767,13 +768,13 @@
         <v>54</v>
       </c>
       <c r="E1" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="F1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>10</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>102</v>
       </c>
     </row>
     <row r="2" spans="1:7" ht="24">
@@ -785,7 +786,7 @@
       <c r="B3" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="E3" s="1" t="s">
+      <c r="F3" s="1" t="s">
         <v>94</v>
       </c>
     </row>
@@ -798,7 +799,7 @@
       <c r="B5" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="E5" s="1" t="s">
+      <c r="F5" s="1" t="s">
         <v>47</v>
       </c>
     </row>
@@ -812,10 +813,10 @@
         <v>100</v>
       </c>
       <c r="E7" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="F7" s="1" t="s">
         <v>101</v>
-      </c>
-      <c r="G7" s="1" t="s">
-        <v>103</v>
       </c>
     </row>
     <row r="8" spans="1:7" ht="24">
@@ -827,7 +828,7 @@
       <c r="B9" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="E9" s="1" t="s">
+      <c r="F9" s="1" t="s">
         <v>50</v>
       </c>
     </row>
@@ -835,7 +836,7 @@
       <c r="B10" s="1" t="s">
         <v>95</v>
       </c>
-      <c r="E10" s="1" t="s">
+      <c r="F10" s="1" t="s">
         <v>96</v>
       </c>
     </row>
@@ -848,7 +849,7 @@
       <c r="C12" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="E12" s="1" t="s">
+      <c r="F12" s="1" t="s">
         <v>53</v>
       </c>
     </row>
@@ -856,7 +857,7 @@
       <c r="C13" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="E13" s="1" t="s">
+      <c r="F13" s="1" t="s">
         <v>7</v>
       </c>
     </row>
@@ -869,7 +870,7 @@
       <c r="D15" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="E15" s="1" t="s">
+      <c r="F15" s="1" t="s">
         <v>61</v>
       </c>
     </row>
@@ -877,307 +878,307 @@
       <c r="D16" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="E16" s="1" t="s">
+      <c r="F16" s="1" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="17" spans="2:5" ht="24">
+    <row r="17" spans="2:6" ht="24">
       <c r="D17" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="E17" s="1" t="s">
+      <c r="F17" s="1" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="18" spans="2:5" ht="24">
+    <row r="18" spans="2:6" ht="24">
       <c r="D18" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="E18" s="1" t="s">
+      <c r="F18" s="1" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="19" spans="2:5" ht="48">
+    <row r="19" spans="2:6" ht="48">
       <c r="D19" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="E19" s="1" t="s">
+      <c r="F19" s="1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="20" spans="2:5" ht="24">
+    <row r="20" spans="2:6" ht="24">
       <c r="C20" s="1" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="21" spans="2:5" ht="24">
+    <row r="21" spans="2:6" ht="24">
       <c r="D21" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="E21" s="1" t="s">
+      <c r="F21" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="22" spans="2:5" ht="24">
+    <row r="22" spans="2:6" ht="24">
       <c r="D22" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="E22" s="1" t="s">
+      <c r="F22" s="1" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="23" spans="2:5" ht="24">
+    <row r="23" spans="2:6" ht="24">
       <c r="D23" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="E23" s="1" t="s">
+      <c r="F23" s="1" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="24" spans="2:5" ht="24">
+    <row r="24" spans="2:6" ht="24">
       <c r="D24" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="E24" s="1" t="s">
+      <c r="F24" s="1" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="25" spans="2:5" ht="24">
+    <row r="25" spans="2:6" ht="24">
       <c r="D25" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="E25" s="1" t="s">
+      <c r="F25" s="1" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="26" spans="2:5" ht="24">
+    <row r="26" spans="2:6" ht="24">
       <c r="D26" s="1" t="s">
         <v>69</v>
       </c>
-      <c r="E26" s="1" t="s">
+      <c r="F26" s="1" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="27" spans="2:5" ht="24">
+    <row r="27" spans="2:6" ht="24">
       <c r="C27" s="1" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="28" spans="2:5" ht="24">
+    <row r="28" spans="2:6" ht="24">
       <c r="D28" s="1" t="s">
         <v>77</v>
       </c>
-      <c r="E28" s="1" t="s">
+      <c r="F28" s="1" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="29" spans="2:5" ht="24">
+    <row r="29" spans="2:6" ht="24">
       <c r="D29" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="E29" s="1" t="s">
+      <c r="F29" s="1" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="30" spans="2:5" ht="24">
+    <row r="30" spans="2:6" ht="24">
       <c r="D30" s="1" t="s">
         <v>79</v>
       </c>
-      <c r="E30" s="1" t="s">
+      <c r="F30" s="1" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="31" spans="2:5" ht="24">
+    <row r="31" spans="2:6" ht="24">
       <c r="D31" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="E31" s="1" t="s">
+      <c r="F31" s="1" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="32" spans="2:5" ht="24">
+    <row r="32" spans="2:6" ht="24">
       <c r="B32" s="1" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="33" spans="1:6" ht="24">
+    <row r="33" spans="1:7" ht="24">
       <c r="C33" s="1" t="s">
         <v>97</v>
       </c>
-      <c r="E33" s="1" t="s">
+      <c r="F33" s="1" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="34" spans="1:6" ht="24">
+    <row r="34" spans="1:7" ht="24">
       <c r="C34" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="E34" s="1" t="s">
+      <c r="F34" s="1" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="35" spans="1:6" ht="24">
+    <row r="35" spans="1:7" ht="24">
       <c r="C35" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="E35" s="1" t="s">
+      <c r="F35" s="1" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="36" spans="1:6" ht="24">
+    <row r="36" spans="1:7" ht="24">
       <c r="C36" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="E36" s="1" t="s">
+      <c r="F36" s="1" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="37" spans="1:6" ht="24">
+    <row r="37" spans="1:7" ht="24">
       <c r="C37" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="E37" s="1" t="s">
+      <c r="F37" s="1" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="38" spans="1:6" ht="24">
+    <row r="38" spans="1:7" ht="24">
       <c r="C38" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="E38" s="1" t="s">
+      <c r="F38" s="1" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="39" spans="1:6" ht="24">
+    <row r="39" spans="1:7" ht="24">
       <c r="C39" s="1" t="s">
         <v>85</v>
       </c>
-      <c r="E39" s="1" t="s">
+      <c r="F39" s="1" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="40" spans="1:6" ht="24">
+    <row r="40" spans="1:7" ht="24">
       <c r="C40" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="E40" s="1" t="s">
+      <c r="F40" s="1" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="41" spans="1:6" ht="24">
+    <row r="41" spans="1:7" ht="24">
       <c r="C41" s="1" t="s">
         <v>86</v>
       </c>
-      <c r="E41" s="1" t="s">
+      <c r="F41" s="1" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="42" spans="1:6" ht="24">
+    <row r="42" spans="1:7" ht="24">
       <c r="C42" s="1" t="s">
         <v>87</v>
       </c>
-      <c r="E42" s="1" t="s">
+      <c r="F42" s="1" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="43" spans="1:6" ht="24" customHeight="1">
+    <row r="43" spans="1:7" ht="24" customHeight="1">
       <c r="A43" s="1" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="44" spans="1:6" ht="48">
+    <row r="44" spans="1:7" ht="48">
       <c r="B44" s="1" t="s">
         <v>90</v>
       </c>
-      <c r="F44" s="1" t="s">
+      <c r="G44" s="1" t="s">
         <v>92</v>
       </c>
     </row>
-    <row r="45" spans="1:6" ht="24">
+    <row r="45" spans="1:7" ht="24">
       <c r="B45" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="F45" s="1" t="s">
+      <c r="G45" s="1" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="46" spans="1:6" ht="24">
+    <row r="46" spans="1:7" ht="24">
       <c r="B46" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="F46" s="1" t="s">
+      <c r="G46" s="1" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="47" spans="1:6" ht="24">
+    <row r="47" spans="1:7" ht="24">
       <c r="B47" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="F47" s="1" t="s">
+      <c r="G47" s="1" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="48" spans="1:6" ht="48">
+    <row r="48" spans="1:7" ht="48">
       <c r="B48" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="F48" s="1" t="s">
+      <c r="G48" s="1" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="49" spans="2:6" ht="24">
+    <row r="49" spans="2:7" ht="24">
       <c r="B49" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="F49" s="1" t="s">
+      <c r="G49" s="1" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="50" spans="2:6" ht="24">
+    <row r="50" spans="2:7" ht="24">
       <c r="B50" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="F50" s="1" t="s">
+      <c r="G50" s="1" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="51" spans="2:6" ht="48">
+    <row r="51" spans="2:7" ht="48">
       <c r="B51" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="F51" s="1" t="s">
+      <c r="G51" s="1" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="52" spans="2:6" ht="24">
+    <row r="52" spans="2:7" ht="24">
       <c r="B52" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="F52" s="1" t="s">
+      <c r="G52" s="1" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="53" spans="2:6" ht="24">
+    <row r="53" spans="2:7" ht="24">
       <c r="B53" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="F53" s="1" t="s">
+      <c r="G53" s="1" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="54" spans="2:6" ht="24">
+    <row r="54" spans="2:7" ht="24">
       <c r="B54" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="F54" s="1" t="s">
+      <c r="G54" s="1" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="55" spans="2:6" ht="24">
+    <row r="55" spans="2:7" ht="24">
       <c r="B55" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="F55" s="1" t="s">
+      <c r="G55" s="1" t="s">
         <v>93</v>
       </c>
     </row>

--- a/public/MENU_DATA.xlsx
+++ b/public/MENU_DATA.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kang-seokmin/MyProjects/base-nextjs/public/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{081C7AA5-EB7A-3646-975B-D46D708F9701}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AF5C02ED-C183-6245-BC7C-231FDA3CC7C4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-38400" yWindow="500" windowWidth="38400" windowHeight="19400" xr2:uid="{546758EE-569E-9D45-A59F-0BD70D00A04F}"/>
   </bookViews>
@@ -326,10 +326,6 @@
     <t>https://fontawesome.com/download</t>
   </si>
   <si>
-    <t>index</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>사이트맵</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -363,6 +359,10 @@
   </si>
   <si>
     <t>dashboard</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>main</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -742,7 +742,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F7" sqref="F7"/>
+      <selection pane="bottomLeft" activeCell="F3" sqref="F3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="23"/>
@@ -768,7 +768,7 @@
         <v>54</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="F1" s="1" t="s">
         <v>3</v>
@@ -787,7 +787,7 @@
         <v>48</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>94</v>
+        <v>103</v>
       </c>
     </row>
     <row r="4" spans="1:7" ht="24">
@@ -805,18 +805,18 @@
     </row>
     <row r="6" spans="1:7" ht="24">
       <c r="A6" s="1" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="7" spans="1:7" ht="24">
       <c r="B7" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="F7" s="1" t="s">
         <v>100</v>
-      </c>
-      <c r="E7" s="1" t="s">
-        <v>103</v>
-      </c>
-      <c r="F7" s="1" t="s">
-        <v>101</v>
       </c>
     </row>
     <row r="8" spans="1:7" ht="24">
@@ -834,10 +834,10 @@
     </row>
     <row r="10" spans="1:7" ht="24">
       <c r="B10" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="F10" s="1" t="s">
         <v>95</v>
-      </c>
-      <c r="F10" s="1" t="s">
-        <v>96</v>
       </c>
     </row>
     <row r="11" spans="1:7" ht="24">
@@ -1003,10 +1003,10 @@
     </row>
     <row r="33" spans="1:7" ht="24">
       <c r="C33" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="F33" s="1" t="s">
         <v>97</v>
-      </c>
-      <c r="F33" s="1" t="s">
-        <v>98</v>
       </c>
     </row>
     <row r="34" spans="1:7" ht="24">

--- a/public/MENU_DATA.xlsx
+++ b/public/MENU_DATA.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kang-seokmin/MyProjects/base-nextjs/public/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AF5C02ED-C183-6245-BC7C-231FDA3CC7C4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E7E683FC-8255-8E48-BA77-4A2FF0A01763}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-38400" yWindow="500" windowWidth="38400" windowHeight="19400" xr2:uid="{546758EE-569E-9D45-A59F-0BD70D00A04F}"/>
+    <workbookView xWindow="-38400" yWindow="500" windowWidth="38400" windowHeight="21100" xr2:uid="{546758EE-569E-9D45-A59F-0BD70D00A04F}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="104">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="105">
   <si>
     <t>D_1</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -287,12 +287,6 @@
     <t>바텀시트</t>
   </si>
   <si>
-    <t>_pub_modal_control</t>
-  </si>
-  <si>
-    <t>_pub_layerpop</t>
-  </si>
-  <si>
     <t>_pub_alert</t>
   </si>
   <si>
@@ -363,6 +357,18 @@
   </si>
   <si>
     <t>main</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>modal</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>layer_pop</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>example</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -741,8 +747,8 @@
   <dimension ref="A1:G55"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F3" sqref="F3"/>
+      <pane ySplit="1" topLeftCell="A6" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E29" sqref="E29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="23"/>
@@ -768,7 +774,7 @@
         <v>54</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="F1" s="1" t="s">
         <v>3</v>
@@ -787,7 +793,7 @@
         <v>48</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
     </row>
     <row r="4" spans="1:7" ht="24">
@@ -805,18 +811,18 @@
     </row>
     <row r="6" spans="1:7" ht="24">
       <c r="A6" s="1" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
     </row>
     <row r="7" spans="1:7" ht="24">
       <c r="B7" s="1" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
     </row>
     <row r="8" spans="1:7" ht="24">
@@ -834,10 +840,10 @@
     </row>
     <row r="10" spans="1:7" ht="24">
       <c r="B10" s="1" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
     </row>
     <row r="11" spans="1:7" ht="24">
@@ -968,16 +974,22 @@
       <c r="D28" s="1" t="s">
         <v>77</v>
       </c>
+      <c r="E28" s="1" t="s">
+        <v>104</v>
+      </c>
       <c r="F28" s="1" t="s">
-        <v>81</v>
+        <v>102</v>
       </c>
     </row>
     <row r="29" spans="2:6" ht="24">
       <c r="D29" s="1" t="s">
         <v>78</v>
       </c>
+      <c r="E29" s="1" t="s">
+        <v>104</v>
+      </c>
       <c r="F29" s="1" t="s">
-        <v>82</v>
+        <v>103</v>
       </c>
     </row>
     <row r="30" spans="2:6" ht="24">
@@ -985,7 +997,7 @@
         <v>79</v>
       </c>
       <c r="F30" s="1" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
     </row>
     <row r="31" spans="2:6" ht="24">
@@ -993,7 +1005,7 @@
         <v>80</v>
       </c>
       <c r="F31" s="1" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
     </row>
     <row r="32" spans="2:6" ht="24">
@@ -1003,10 +1015,10 @@
     </row>
     <row r="33" spans="1:7" ht="24">
       <c r="C33" s="1" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="F33" s="1" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
     </row>
     <row r="34" spans="1:7" ht="24">
@@ -1051,7 +1063,7 @@
     </row>
     <row r="39" spans="1:7" ht="24">
       <c r="C39" s="1" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="F39" s="1" t="s">
         <v>21</v>
@@ -1067,7 +1079,7 @@
     </row>
     <row r="41" spans="1:7" ht="24">
       <c r="C41" s="1" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="F41" s="1" t="s">
         <v>24</v>
@@ -1075,23 +1087,23 @@
     </row>
     <row r="42" spans="1:7" ht="24">
       <c r="C42" s="1" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="F42" s="1" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
     </row>
     <row r="43" spans="1:7" ht="24" customHeight="1">
       <c r="A43" s="1" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
     </row>
     <row r="44" spans="1:7" ht="48">
       <c r="B44" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="G44" s="1" t="s">
         <v>90</v>
-      </c>
-      <c r="G44" s="1" t="s">
-        <v>92</v>
       </c>
     </row>
     <row r="45" spans="1:7" ht="24">
@@ -1176,10 +1188,10 @@
     </row>
     <row r="55" spans="2:7" ht="24">
       <c r="B55" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="G55" s="1" t="s">
         <v>91</v>
-      </c>
-      <c r="G55" s="1" t="s">
-        <v>93</v>
       </c>
     </row>
   </sheetData>

--- a/public/MENU_DATA.xlsx
+++ b/public/MENU_DATA.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kang-seokmin/MyProjects/base-nextjs/public/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E7E683FC-8255-8E48-BA77-4A2FF0A01763}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1586FC67-C349-1A4C-AEB2-1336746C6732}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-38400" yWindow="500" windowWidth="38400" windowHeight="21100" xr2:uid="{546758EE-569E-9D45-A59F-0BD70D00A04F}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="105">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="105">
   <si>
     <t>D_1</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -266,9 +266,6 @@
     <t>_pub_button</t>
   </si>
   <si>
-    <t>_pub_checkbox</t>
-  </si>
-  <si>
     <t>_pub_radiobutton</t>
   </si>
   <si>
@@ -370,6 +367,9 @@
   <si>
     <t>example</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>checkbox</t>
   </si>
 </sst>
 </file>
@@ -748,7 +748,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A6" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E29" sqref="E29"/>
+      <selection pane="bottomLeft" activeCell="E25" sqref="E25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="23"/>
@@ -774,7 +774,7 @@
         <v>54</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="F1" s="1" t="s">
         <v>3</v>
@@ -793,7 +793,7 @@
         <v>48</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="4" spans="1:7" ht="24">
@@ -811,18 +811,18 @@
     </row>
     <row r="6" spans="1:7" ht="24">
       <c r="A6" s="1" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="7" spans="1:7" ht="24">
       <c r="B7" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="F7" s="1" t="s">
         <v>97</v>
-      </c>
-      <c r="E7" s="1" t="s">
-        <v>100</v>
-      </c>
-      <c r="F7" s="1" t="s">
-        <v>98</v>
       </c>
     </row>
     <row r="8" spans="1:7" ht="24">
@@ -840,10 +840,10 @@
     </row>
     <row r="10" spans="1:7" ht="24">
       <c r="B10" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="F10" s="1" t="s">
         <v>92</v>
-      </c>
-      <c r="F10" s="1" t="s">
-        <v>93</v>
       </c>
     </row>
     <row r="11" spans="1:7" ht="24">
@@ -953,8 +953,11 @@
       <c r="D25" s="1" t="s">
         <v>68</v>
       </c>
+      <c r="E25" s="1" t="s">
+        <v>103</v>
+      </c>
       <c r="F25" s="1" t="s">
-        <v>74</v>
+        <v>104</v>
       </c>
     </row>
     <row r="26" spans="2:6" ht="24">
@@ -962,50 +965,50 @@
         <v>69</v>
       </c>
       <c r="F26" s="1" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="27" spans="2:6" ht="24">
       <c r="C27" s="1" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="28" spans="2:6" ht="24">
       <c r="D28" s="1" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="E28" s="1" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="F28" s="1" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
     <row r="29" spans="2:6" ht="24">
       <c r="D29" s="1" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="E29" s="1" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="F29" s="1" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="30" spans="2:6" ht="24">
       <c r="D30" s="1" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="F30" s="1" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="31" spans="2:6" ht="24">
       <c r="D31" s="1" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="F31" s="1" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="32" spans="2:6" ht="24">
@@ -1015,10 +1018,10 @@
     </row>
     <row r="33" spans="1:7" ht="24">
       <c r="C33" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="F33" s="1" t="s">
         <v>94</v>
-      </c>
-      <c r="F33" s="1" t="s">
-        <v>95</v>
       </c>
     </row>
     <row r="34" spans="1:7" ht="24">
@@ -1063,7 +1066,7 @@
     </row>
     <row r="39" spans="1:7" ht="24">
       <c r="C39" s="1" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="F39" s="1" t="s">
         <v>21</v>
@@ -1079,7 +1082,7 @@
     </row>
     <row r="41" spans="1:7" ht="24">
       <c r="C41" s="1" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="F41" s="1" t="s">
         <v>24</v>
@@ -1087,23 +1090,23 @@
     </row>
     <row r="42" spans="1:7" ht="24">
       <c r="C42" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="F42" s="1" t="s">
         <v>85</v>
-      </c>
-      <c r="F42" s="1" t="s">
-        <v>86</v>
       </c>
     </row>
     <row r="43" spans="1:7" ht="24" customHeight="1">
       <c r="A43" s="1" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="44" spans="1:7" ht="48">
       <c r="B44" s="1" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="G44" s="1" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="45" spans="1:7" ht="24">
@@ -1188,10 +1191,10 @@
     </row>
     <row r="55" spans="2:7" ht="24">
       <c r="B55" s="1" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="G55" s="1" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
   </sheetData>

--- a/public/MENU_DATA.xlsx
+++ b/public/MENU_DATA.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kang-seokmin/MyProjects/base-nextjs/public/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1586FC67-C349-1A4C-AEB2-1336746C6732}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D35EE1E5-F110-DB48-AE48-9905010A2376}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-38400" yWindow="500" windowWidth="38400" windowHeight="21100" xr2:uid="{546758EE-569E-9D45-A59F-0BD70D00A04F}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="105">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="101">
   <si>
     <t>D_1</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -63,9 +63,6 @@
     <t>_pub_fullpage</t>
   </si>
   <si>
-    <t>_pub_scroll_snap</t>
-  </si>
-  <si>
     <t>_pub_fixed</t>
   </si>
   <si>
@@ -193,25 +190,16 @@
     <t>테스트</t>
   </si>
   <si>
-    <t>_pub_test</t>
-  </si>
-  <si>
     <t>커스텀 UI</t>
   </si>
   <si>
     <t>Component</t>
   </si>
   <si>
-    <t>_pub_component</t>
-  </si>
-  <si>
     <t>D_4</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>CSS Scroll Snap</t>
-  </si>
-  <si>
     <t>Layout</t>
   </si>
   <si>
@@ -227,12 +215,6 @@
     <t>Wheel Down Horizontal Scroll</t>
   </si>
   <si>
-    <t>_pub_header</t>
-  </si>
-  <si>
-    <t>_pub_footer</t>
-  </si>
-  <si>
     <t>Form</t>
   </si>
   <si>
@@ -317,14 +299,6 @@
     <t>https://fontawesome.com/download</t>
   </si>
   <si>
-    <t>사이트맵</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>_pub_sitemap</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>HandlebarsJS</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -370,6 +344,22 @@
   </si>
   <si>
     <t>checkbox</t>
+  </si>
+  <si>
+    <t>test</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>header</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>footer</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>common</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -744,11 +734,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{54B6F5C6-AA51-F848-B9AA-E825AB773646}">
-  <dimension ref="A1:G55"/>
+  <dimension ref="A1:G53"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A6" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E25" sqref="E25"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="G17" sqref="G17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="23"/>
@@ -771,430 +761,426 @@
         <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>98</v>
+        <v>90</v>
       </c>
       <c r="F1" s="1" t="s">
         <v>3</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="2" spans="1:7" ht="24">
       <c r="A2" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="3" spans="1:7" ht="24">
       <c r="B3" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>100</v>
+        <v>92</v>
       </c>
     </row>
     <row r="4" spans="1:7" ht="24">
       <c r="A4" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="5" spans="1:7" ht="24">
       <c r="B5" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="F5" s="1" t="s">
         <v>46</v>
-      </c>
-      <c r="F5" s="1" t="s">
-        <v>47</v>
       </c>
     </row>
     <row r="6" spans="1:7" ht="24">
       <c r="A6" s="1" t="s">
-        <v>95</v>
+        <v>87</v>
       </c>
     </row>
     <row r="7" spans="1:7" ht="24">
       <c r="B7" s="1" t="s">
-        <v>96</v>
+        <v>88</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>99</v>
+        <v>91</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>97</v>
+        <v>89</v>
       </c>
     </row>
     <row r="8" spans="1:7" ht="24">
       <c r="A8" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="9" spans="1:7" ht="24">
       <c r="B9" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>50</v>
+        <v>97</v>
       </c>
     </row>
     <row r="10" spans="1:7" ht="24">
       <c r="B10" s="1" t="s">
-        <v>91</v>
-      </c>
-      <c r="F10" s="1" t="s">
-        <v>92</v>
+        <v>49</v>
       </c>
     </row>
     <row r="11" spans="1:7" ht="24">
-      <c r="B11" s="1" t="s">
-        <v>51</v>
+      <c r="C11" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="E11" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="F11" s="1" t="s">
+        <v>100</v>
       </c>
     </row>
     <row r="12" spans="1:7" ht="24">
       <c r="C12" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="F12" s="1" t="s">
+    </row>
+    <row r="13" spans="1:7" ht="24">
+      <c r="D13" s="1" t="s">
         <v>53</v>
       </c>
-    </row>
-    <row r="13" spans="1:7" ht="24">
-      <c r="C13" s="1" t="s">
-        <v>55</v>
+      <c r="E13" s="1" t="s">
+        <v>95</v>
       </c>
       <c r="F13" s="1" t="s">
-        <v>7</v>
+        <v>98</v>
       </c>
     </row>
     <row r="14" spans="1:7" ht="24">
-      <c r="C14" s="1" t="s">
-        <v>56</v>
+      <c r="D14" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="E14" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="F14" s="1" t="s">
+        <v>99</v>
       </c>
     </row>
     <row r="15" spans="1:7" ht="24">
       <c r="D15" s="1" t="s">
-        <v>57</v>
+        <v>4</v>
+      </c>
+      <c r="E15" s="1" t="s">
+        <v>95</v>
       </c>
       <c r="F15" s="1" t="s">
-        <v>61</v>
+        <v>7</v>
       </c>
     </row>
     <row r="16" spans="1:7" ht="24">
       <c r="D16" s="1" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="F16" s="1" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="17" spans="2:6" ht="24">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="17" spans="2:6" ht="48">
       <c r="D17" s="1" t="s">
-        <v>4</v>
+        <v>56</v>
       </c>
       <c r="F17" s="1" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="18" spans="2:6" ht="24">
-      <c r="D18" s="1" t="s">
+      <c r="C18" s="1" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="19" spans="2:6" ht="24">
+      <c r="D19" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="F19" s="1" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="20" spans="2:6" ht="24">
+      <c r="D20" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="F18" s="1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="19" spans="2:6" ht="48">
-      <c r="D19" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="F19" s="1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="20" spans="2:6" ht="24">
-      <c r="C20" s="1" t="s">
-        <v>63</v>
+      <c r="F20" s="1" t="s">
+        <v>65</v>
       </c>
     </row>
     <row r="21" spans="2:6" ht="24">
       <c r="D21" s="1" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="F21" s="1" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
     </row>
     <row r="22" spans="2:6" ht="24">
       <c r="D22" s="1" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="F22" s="1" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
     </row>
     <row r="23" spans="2:6" ht="24">
       <c r="D23" s="1" t="s">
-        <v>66</v>
+        <v>62</v>
+      </c>
+      <c r="E23" s="1" t="s">
+        <v>95</v>
       </c>
       <c r="F23" s="1" t="s">
-        <v>72</v>
+        <v>96</v>
       </c>
     </row>
     <row r="24" spans="2:6" ht="24">
       <c r="D24" s="1" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="F24" s="1" t="s">
-        <v>73</v>
+        <v>68</v>
       </c>
     </row>
     <row r="25" spans="2:6" ht="24">
-      <c r="D25" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="E25" s="1" t="s">
-        <v>103</v>
-      </c>
-      <c r="F25" s="1" t="s">
-        <v>104</v>
+      <c r="C25" s="1" t="s">
+        <v>69</v>
       </c>
     </row>
     <row r="26" spans="2:6" ht="24">
       <c r="D26" s="1" t="s">
-        <v>69</v>
+        <v>70</v>
+      </c>
+      <c r="E26" s="1" t="s">
+        <v>95</v>
       </c>
       <c r="F26" s="1" t="s">
-        <v>74</v>
+        <v>93</v>
       </c>
     </row>
     <row r="27" spans="2:6" ht="24">
-      <c r="C27" s="1" t="s">
-        <v>75</v>
+      <c r="D27" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="E27" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="F27" s="1" t="s">
+        <v>94</v>
       </c>
     </row>
     <row r="28" spans="2:6" ht="24">
       <c r="D28" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="E28" s="1" t="s">
-        <v>103</v>
+        <v>72</v>
       </c>
       <c r="F28" s="1" t="s">
-        <v>101</v>
+        <v>74</v>
       </c>
     </row>
     <row r="29" spans="2:6" ht="24">
       <c r="D29" s="1" t="s">
-        <v>77</v>
-      </c>
-      <c r="E29" s="1" t="s">
-        <v>103</v>
+        <v>73</v>
       </c>
       <c r="F29" s="1" t="s">
-        <v>102</v>
+        <v>75</v>
       </c>
     </row>
     <row r="30" spans="2:6" ht="24">
-      <c r="D30" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="F30" s="1" t="s">
-        <v>80</v>
+      <c r="B30" s="1" t="s">
+        <v>5</v>
       </c>
     </row>
     <row r="31" spans="2:6" ht="24">
-      <c r="D31" s="1" t="s">
-        <v>79</v>
+      <c r="C31" s="1" t="s">
+        <v>85</v>
       </c>
       <c r="F31" s="1" t="s">
-        <v>81</v>
+        <v>86</v>
       </c>
     </row>
     <row r="32" spans="2:6" ht="24">
-      <c r="B32" s="1" t="s">
-        <v>5</v>
+      <c r="C32" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F32" s="1" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="33" spans="1:7" ht="24">
       <c r="C33" s="1" t="s">
-        <v>93</v>
+        <v>12</v>
       </c>
       <c r="F33" s="1" t="s">
-        <v>94</v>
+        <v>13</v>
       </c>
     </row>
     <row r="34" spans="1:7" ht="24">
       <c r="C34" s="1" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="F34" s="1" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
     </row>
     <row r="35" spans="1:7" ht="24">
       <c r="C35" s="1" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="F35" s="1" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
     </row>
     <row r="36" spans="1:7" ht="24">
       <c r="C36" s="1" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="F36" s="1" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
     </row>
     <row r="37" spans="1:7" ht="24">
       <c r="C37" s="1" t="s">
-        <v>17</v>
+        <v>76</v>
       </c>
       <c r="F37" s="1" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
     </row>
     <row r="38" spans="1:7" ht="24">
       <c r="C38" s="1" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="F38" s="1" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
     </row>
     <row r="39" spans="1:7" ht="24">
       <c r="C39" s="1" t="s">
-        <v>82</v>
+        <v>77</v>
       </c>
       <c r="F39" s="1" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
     </row>
     <row r="40" spans="1:7" ht="24">
       <c r="C40" s="1" t="s">
-        <v>22</v>
+        <v>78</v>
       </c>
       <c r="F40" s="1" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="41" spans="1:7" ht="24">
-      <c r="C41" s="1" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7" ht="24" customHeight="1">
+      <c r="A41" s="1" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7" ht="48">
+      <c r="B42" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="G42" s="1" t="s">
         <v>83</v>
       </c>
-      <c r="F41" s="1" t="s">
+    </row>
+    <row r="43" spans="1:7" ht="24">
+      <c r="B43" s="1" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="42" spans="1:7" ht="24">
-      <c r="C42" s="1" t="s">
-        <v>84</v>
-      </c>
-      <c r="F42" s="1" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="43" spans="1:7" ht="24" customHeight="1">
-      <c r="A43" s="1" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="44" spans="1:7" ht="48">
+      <c r="G43" s="1" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7" ht="24">
       <c r="B44" s="1" t="s">
-        <v>87</v>
+        <v>26</v>
       </c>
       <c r="G44" s="1" t="s">
-        <v>89</v>
+        <v>27</v>
       </c>
     </row>
     <row r="45" spans="1:7" ht="24">
       <c r="B45" s="1" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="G45" s="1" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="46" spans="1:7" ht="24">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7" ht="48">
       <c r="B46" s="1" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="G46" s="1" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
     </row>
     <row r="47" spans="1:7" ht="24">
       <c r="B47" s="1" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="G47" s="1" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="48" spans="1:7" ht="48">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7" ht="24">
       <c r="B48" s="1" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="G48" s="1" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="49" spans="2:7" ht="24">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="49" spans="2:7" ht="48">
       <c r="B49" s="1" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="G49" s="1" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
     </row>
     <row r="50" spans="2:7" ht="24">
       <c r="B50" s="1" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="G50" s="1" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="51" spans="2:7" ht="48">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="51" spans="2:7" ht="24">
       <c r="B51" s="1" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="G51" s="1" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
     </row>
     <row r="52" spans="2:7" ht="24">
       <c r="B52" s="1" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="G52" s="1" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
     </row>
     <row r="53" spans="2:7" ht="24">
       <c r="B53" s="1" t="s">
-        <v>41</v>
+        <v>82</v>
       </c>
       <c r="G53" s="1" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="54" spans="2:7" ht="24">
-      <c r="B54" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="G54" s="1" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="55" spans="2:7" ht="24">
-      <c r="B55" s="1" t="s">
-        <v>88</v>
-      </c>
-      <c r="G55" s="1" t="s">
-        <v>90</v>
+        <v>84</v>
       </c>
     </row>
   </sheetData>

--- a/public/MENU_DATA.xlsx
+++ b/public/MENU_DATA.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kang-seokmin/MyProjects/base-nextjs/public/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D35EE1E5-F110-DB48-AE48-9905010A2376}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B271D2F3-8CF1-7540-992A-05401B6F0F32}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-38400" yWindow="500" windowWidth="38400" windowHeight="21100" xr2:uid="{546758EE-569E-9D45-A59F-0BD70D00A04F}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="101">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="107" uniqueCount="95">
   <si>
     <t>D_1</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -54,21 +54,9 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Fixed &amp; Sticky</t>
-  </si>
-  <si>
     <t>라이브러리 샘플링</t>
   </si>
   <si>
-    <t>_pub_fullpage</t>
-  </si>
-  <si>
-    <t>_pub_fixed</t>
-  </si>
-  <si>
-    <t>_pub_wheel_hscroll</t>
-  </si>
-  <si>
     <t>EXTERNAL_LINK</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -209,12 +197,6 @@
     <t>Footer</t>
   </si>
   <si>
-    <t>Full Page Swiper</t>
-  </si>
-  <si>
-    <t>Wheel Down Horizontal Scroll</t>
-  </si>
-  <si>
     <t>Form</t>
   </si>
   <si>
@@ -236,21 +218,6 @@
     <t>라디오버튼</t>
   </si>
   <si>
-    <t>_pub_input</t>
-  </si>
-  <si>
-    <t>_pub_select</t>
-  </si>
-  <si>
-    <t>_pub_dropdown</t>
-  </si>
-  <si>
-    <t>_pub_button</t>
-  </si>
-  <si>
-    <t>_pub_radiobutton</t>
-  </si>
-  <si>
     <t>Modal</t>
   </si>
   <si>
@@ -360,6 +327,25 @@
   <si>
     <t>common</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>select</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>dropdown</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>button</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>radiobutton</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>textinput</t>
   </si>
 </sst>
 </file>
@@ -734,11 +720,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{54B6F5C6-AA51-F848-B9AA-E825AB773646}">
-  <dimension ref="A1:G53"/>
+  <dimension ref="A1:G50"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G17" sqref="G17"/>
+      <selection pane="bottomLeft" activeCell="E21" sqref="E21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="23"/>
@@ -761,290 +747,302 @@
         <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>90</v>
+        <v>79</v>
       </c>
       <c r="F1" s="1" t="s">
         <v>3</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
     </row>
     <row r="2" spans="1:7" ht="24">
       <c r="A2" s="1" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
     </row>
     <row r="3" spans="1:7" ht="24">
       <c r="B3" s="1" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>92</v>
+        <v>81</v>
       </c>
     </row>
     <row r="4" spans="1:7" ht="24">
       <c r="A4" s="1" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
     </row>
     <row r="5" spans="1:7" ht="24">
       <c r="B5" s="1" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
     </row>
     <row r="6" spans="1:7" ht="24">
       <c r="A6" s="1" t="s">
-        <v>87</v>
+        <v>76</v>
       </c>
     </row>
     <row r="7" spans="1:7" ht="24">
       <c r="B7" s="1" t="s">
-        <v>88</v>
+        <v>77</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>91</v>
+        <v>80</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>89</v>
+        <v>78</v>
       </c>
     </row>
     <row r="8" spans="1:7" ht="24">
       <c r="A8" s="1" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
     </row>
     <row r="9" spans="1:7" ht="24">
       <c r="B9" s="1" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>97</v>
+        <v>86</v>
       </c>
     </row>
     <row r="10" spans="1:7" ht="24">
       <c r="B10" s="1" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
     </row>
     <row r="11" spans="1:7" ht="24">
       <c r="C11" s="1" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>95</v>
+        <v>84</v>
       </c>
       <c r="F11" s="1" t="s">
-        <v>100</v>
+        <v>89</v>
       </c>
     </row>
     <row r="12" spans="1:7" ht="24">
       <c r="C12" s="1" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
     </row>
     <row r="13" spans="1:7" ht="24">
       <c r="D13" s="1" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>95</v>
+        <v>84</v>
       </c>
       <c r="F13" s="1" t="s">
-        <v>98</v>
+        <v>87</v>
       </c>
     </row>
     <row r="14" spans="1:7" ht="24">
       <c r="D14" s="1" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>95</v>
+        <v>84</v>
       </c>
       <c r="F14" s="1" t="s">
-        <v>99</v>
+        <v>88</v>
       </c>
     </row>
     <row r="15" spans="1:7" ht="24">
-      <c r="D15" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="E15" s="1" t="s">
-        <v>95</v>
-      </c>
-      <c r="F15" s="1" t="s">
-        <v>7</v>
+      <c r="C15" s="1" t="s">
+        <v>51</v>
       </c>
     </row>
     <row r="16" spans="1:7" ht="24">
       <c r="D16" s="1" t="s">
-        <v>55</v>
+        <v>52</v>
+      </c>
+      <c r="E16" s="1" t="s">
+        <v>84</v>
       </c>
       <c r="F16" s="1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="17" spans="2:6" ht="48">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="17" spans="2:6" ht="24">
       <c r="D17" s="1" t="s">
-        <v>56</v>
+        <v>53</v>
+      </c>
+      <c r="E17" s="1" t="s">
+        <v>84</v>
       </c>
       <c r="F17" s="1" t="s">
-        <v>8</v>
+        <v>90</v>
       </c>
     </row>
     <row r="18" spans="2:6" ht="24">
-      <c r="C18" s="1" t="s">
-        <v>57</v>
+      <c r="D18" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="E18" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="F18" s="1" t="s">
+        <v>91</v>
       </c>
     </row>
     <row r="19" spans="2:6" ht="24">
       <c r="D19" s="1" t="s">
-        <v>58</v>
+        <v>55</v>
+      </c>
+      <c r="E19" s="1" t="s">
+        <v>84</v>
       </c>
       <c r="F19" s="1" t="s">
-        <v>64</v>
+        <v>92</v>
       </c>
     </row>
     <row r="20" spans="2:6" ht="24">
       <c r="D20" s="1" t="s">
-        <v>59</v>
+        <v>56</v>
+      </c>
+      <c r="E20" s="1" t="s">
+        <v>84</v>
       </c>
       <c r="F20" s="1" t="s">
-        <v>65</v>
+        <v>85</v>
       </c>
     </row>
     <row r="21" spans="2:6" ht="24">
       <c r="D21" s="1" t="s">
-        <v>60</v>
+        <v>57</v>
+      </c>
+      <c r="E21" s="1" t="s">
+        <v>84</v>
       </c>
       <c r="F21" s="1" t="s">
-        <v>66</v>
+        <v>93</v>
       </c>
     </row>
     <row r="22" spans="2:6" ht="24">
-      <c r="D22" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="F22" s="1" t="s">
-        <v>67</v>
+      <c r="C22" s="1" t="s">
+        <v>58</v>
       </c>
     </row>
     <row r="23" spans="2:6" ht="24">
       <c r="D23" s="1" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="E23" s="1" t="s">
-        <v>95</v>
+        <v>84</v>
       </c>
       <c r="F23" s="1" t="s">
-        <v>96</v>
+        <v>82</v>
       </c>
     </row>
     <row r="24" spans="2:6" ht="24">
       <c r="D24" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="E24" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="F24" s="1" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="25" spans="2:6" ht="24">
+      <c r="D25" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="F25" s="1" t="s">
         <v>63</v>
-      </c>
-      <c r="F24" s="1" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="25" spans="2:6" ht="24">
-      <c r="C25" s="1" t="s">
-        <v>69</v>
       </c>
     </row>
     <row r="26" spans="2:6" ht="24">
       <c r="D26" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="E26" s="1" t="s">
-        <v>95</v>
+        <v>62</v>
       </c>
       <c r="F26" s="1" t="s">
-        <v>93</v>
+        <v>64</v>
       </c>
     </row>
     <row r="27" spans="2:6" ht="24">
-      <c r="D27" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="E27" s="1" t="s">
-        <v>95</v>
-      </c>
-      <c r="F27" s="1" t="s">
-        <v>94</v>
+      <c r="B27" s="1" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="28" spans="2:6" ht="24">
-      <c r="D28" s="1" t="s">
-        <v>72</v>
+      <c r="C28" s="1" t="s">
+        <v>74</v>
       </c>
       <c r="F28" s="1" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
     </row>
     <row r="29" spans="2:6" ht="24">
-      <c r="D29" s="1" t="s">
-        <v>73</v>
+      <c r="C29" s="1" t="s">
+        <v>6</v>
       </c>
       <c r="F29" s="1" t="s">
-        <v>75</v>
+        <v>7</v>
       </c>
     </row>
     <row r="30" spans="2:6" ht="24">
-      <c r="B30" s="1" t="s">
-        <v>5</v>
+      <c r="C30" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="F30" s="1" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="31" spans="2:6" ht="24">
       <c r="C31" s="1" t="s">
-        <v>85</v>
+        <v>10</v>
       </c>
       <c r="F31" s="1" t="s">
-        <v>86</v>
+        <v>11</v>
       </c>
     </row>
     <row r="32" spans="2:6" ht="24">
       <c r="C32" s="1" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="F32" s="1" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
     </row>
     <row r="33" spans="1:7" ht="24">
       <c r="C33" s="1" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="F33" s="1" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
     </row>
     <row r="34" spans="1:7" ht="24">
       <c r="C34" s="1" t="s">
-        <v>14</v>
+        <v>65</v>
       </c>
       <c r="F34" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="35" spans="1:7" ht="24">
       <c r="C35" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="F35" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="36" spans="1:7" ht="24">
       <c r="C36" s="1" t="s">
-        <v>18</v>
+        <v>66</v>
       </c>
       <c r="F36" s="1" t="s">
         <v>19</v>
@@ -1052,135 +1050,111 @@
     </row>
     <row r="37" spans="1:7" ht="24">
       <c r="C37" s="1" t="s">
-        <v>76</v>
+        <v>67</v>
       </c>
       <c r="F37" s="1" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7" ht="24" customHeight="1">
+      <c r="A38" s="1" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7" ht="48">
+      <c r="B39" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="G39" s="1" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7" ht="24">
+      <c r="B40" s="1" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="38" spans="1:7" ht="24">
-      <c r="C38" s="1" t="s">
+      <c r="G40" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="F38" s="1" t="s">
+    </row>
+    <row r="41" spans="1:7" ht="24">
+      <c r="B41" s="1" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="39" spans="1:7" ht="24">
-      <c r="C39" s="1" t="s">
-        <v>77</v>
-      </c>
-      <c r="F39" s="1" t="s">
+      <c r="G41" s="1" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="40" spans="1:7" ht="24">
-      <c r="C40" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="F40" s="1" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="41" spans="1:7" ht="24" customHeight="1">
-      <c r="A41" s="1" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="42" spans="1:7" ht="48">
+    <row r="42" spans="1:7" ht="24">
       <c r="B42" s="1" t="s">
-        <v>81</v>
+        <v>24</v>
       </c>
       <c r="G42" s="1" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="43" spans="1:7" ht="24">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7" ht="48">
       <c r="B43" s="1" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="G43" s="1" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
     </row>
     <row r="44" spans="1:7" ht="24">
       <c r="B44" s="1" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="G44" s="1" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
     </row>
     <row r="45" spans="1:7" ht="24">
       <c r="B45" s="1" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="G45" s="1" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
     </row>
     <row r="46" spans="1:7" ht="48">
       <c r="B46" s="1" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="G46" s="1" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
     </row>
     <row r="47" spans="1:7" ht="24">
       <c r="B47" s="1" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="G47" s="1" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
     </row>
     <row r="48" spans="1:7" ht="24">
       <c r="B48" s="1" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="G48" s="1" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="49" spans="2:7" ht="48">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="49" spans="2:7" ht="24">
       <c r="B49" s="1" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="G49" s="1" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
     </row>
     <row r="50" spans="2:7" ht="24">
       <c r="B50" s="1" t="s">
-        <v>38</v>
+        <v>71</v>
       </c>
       <c r="G50" s="1" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="51" spans="2:7" ht="24">
-      <c r="B51" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="G51" s="1" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="52" spans="2:7" ht="24">
-      <c r="B52" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="G52" s="1" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="53" spans="2:7" ht="24">
-      <c r="B53" s="1" t="s">
-        <v>82</v>
-      </c>
-      <c r="G53" s="1" t="s">
-        <v>84</v>
+        <v>73</v>
       </c>
     </row>
   </sheetData>

--- a/public/MENU_DATA.xlsx
+++ b/public/MENU_DATA.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kang-seokmin/MyProjects/base-nextjs/public/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B271D2F3-8CF1-7540-992A-05401B6F0F32}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A673C0ED-582B-354F-8D97-D02BA8579E74}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-38400" yWindow="500" windowWidth="38400" windowHeight="21100" xr2:uid="{546758EE-569E-9D45-A59F-0BD70D00A04F}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="107" uniqueCount="95">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="107" uniqueCount="93">
   <si>
     <t>D_1</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -233,12 +233,6 @@
     <t>바텀시트</t>
   </si>
   <si>
-    <t>_pub_alert</t>
-  </si>
-  <si>
-    <t>_pub_bottom_sheet</t>
-  </si>
-  <si>
     <t>Particles.js</t>
   </si>
   <si>
@@ -266,14 +260,6 @@
     <t>https://fontawesome.com/download</t>
   </si>
   <si>
-    <t>HandlebarsJS</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>_pub_hbs</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>대쉬보드</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -302,10 +288,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>layer_pop</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>example</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -346,6 +328,18 @@
   </si>
   <si>
     <t>textinput</t>
+  </si>
+  <si>
+    <t>layerpop</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>alert</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>bottom_sheet</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -720,11 +714,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{54B6F5C6-AA51-F848-B9AA-E825AB773646}">
-  <dimension ref="A1:G50"/>
+  <dimension ref="A1:G49"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E21" sqref="E21"/>
+      <pane ySplit="1" topLeftCell="A9" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="G25" sqref="G25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="23"/>
@@ -750,7 +744,7 @@
         <v>47</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="F1" s="1" t="s">
         <v>3</v>
@@ -769,7 +763,7 @@
         <v>43</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
     </row>
     <row r="4" spans="1:7" ht="24">
@@ -787,18 +781,18 @@
     </row>
     <row r="6" spans="1:7" ht="24">
       <c r="A6" s="1" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
     </row>
     <row r="7" spans="1:7" ht="24">
       <c r="B7" s="1" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
     </row>
     <row r="8" spans="1:7" ht="24">
@@ -811,7 +805,7 @@
         <v>44</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>86</v>
+        <v>81</v>
       </c>
     </row>
     <row r="10" spans="1:7" ht="24">
@@ -824,10 +818,10 @@
         <v>46</v>
       </c>
       <c r="E11" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="F11" s="1" t="s">
         <v>84</v>
-      </c>
-      <c r="F11" s="1" t="s">
-        <v>89</v>
       </c>
     </row>
     <row r="12" spans="1:7" ht="24">
@@ -840,10 +834,10 @@
         <v>49</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>84</v>
+        <v>79</v>
       </c>
       <c r="F13" s="1" t="s">
-        <v>87</v>
+        <v>82</v>
       </c>
     </row>
     <row r="14" spans="1:7" ht="24">
@@ -851,10 +845,10 @@
         <v>50</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>84</v>
+        <v>79</v>
       </c>
       <c r="F14" s="1" t="s">
-        <v>88</v>
+        <v>83</v>
       </c>
     </row>
     <row r="15" spans="1:7" ht="24">
@@ -867,10 +861,10 @@
         <v>52</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>84</v>
+        <v>79</v>
       </c>
       <c r="F16" s="1" t="s">
-        <v>94</v>
+        <v>89</v>
       </c>
     </row>
     <row r="17" spans="2:6" ht="24">
@@ -878,10 +872,10 @@
         <v>53</v>
       </c>
       <c r="E17" s="1" t="s">
-        <v>84</v>
+        <v>79</v>
       </c>
       <c r="F17" s="1" t="s">
-        <v>90</v>
+        <v>85</v>
       </c>
     </row>
     <row r="18" spans="2:6" ht="24">
@@ -889,10 +883,10 @@
         <v>54</v>
       </c>
       <c r="E18" s="1" t="s">
-        <v>84</v>
+        <v>79</v>
       </c>
       <c r="F18" s="1" t="s">
-        <v>91</v>
+        <v>86</v>
       </c>
     </row>
     <row r="19" spans="2:6" ht="24">
@@ -900,10 +894,10 @@
         <v>55</v>
       </c>
       <c r="E19" s="1" t="s">
-        <v>84</v>
+        <v>79</v>
       </c>
       <c r="F19" s="1" t="s">
-        <v>92</v>
+        <v>87</v>
       </c>
     </row>
     <row r="20" spans="2:6" ht="24">
@@ -911,10 +905,10 @@
         <v>56</v>
       </c>
       <c r="E20" s="1" t="s">
-        <v>84</v>
+        <v>79</v>
       </c>
       <c r="F20" s="1" t="s">
-        <v>85</v>
+        <v>80</v>
       </c>
     </row>
     <row r="21" spans="2:6" ht="24">
@@ -922,10 +916,10 @@
         <v>57</v>
       </c>
       <c r="E21" s="1" t="s">
-        <v>84</v>
+        <v>79</v>
       </c>
       <c r="F21" s="1" t="s">
-        <v>93</v>
+        <v>88</v>
       </c>
     </row>
     <row r="22" spans="2:6" ht="24">
@@ -938,10 +932,10 @@
         <v>59</v>
       </c>
       <c r="E23" s="1" t="s">
-        <v>84</v>
+        <v>79</v>
       </c>
       <c r="F23" s="1" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
     </row>
     <row r="24" spans="2:6" ht="24">
@@ -949,26 +943,32 @@
         <v>60</v>
       </c>
       <c r="E24" s="1" t="s">
-        <v>84</v>
+        <v>79</v>
       </c>
       <c r="F24" s="1" t="s">
-        <v>83</v>
+        <v>90</v>
       </c>
     </row>
     <row r="25" spans="2:6" ht="24">
       <c r="D25" s="1" t="s">
         <v>61</v>
       </c>
+      <c r="E25" s="1" t="s">
+        <v>79</v>
+      </c>
       <c r="F25" s="1" t="s">
-        <v>63</v>
+        <v>91</v>
       </c>
     </row>
     <row r="26" spans="2:6" ht="24">
       <c r="D26" s="1" t="s">
         <v>62</v>
       </c>
+      <c r="E26" s="1" t="s">
+        <v>79</v>
+      </c>
       <c r="F26" s="1" t="s">
-        <v>64</v>
+        <v>92</v>
       </c>
     </row>
     <row r="27" spans="2:6" ht="24">
@@ -978,183 +978,175 @@
     </row>
     <row r="28" spans="2:6" ht="24">
       <c r="C28" s="1" t="s">
-        <v>74</v>
+        <v>6</v>
       </c>
       <c r="F28" s="1" t="s">
-        <v>75</v>
+        <v>7</v>
       </c>
     </row>
     <row r="29" spans="2:6" ht="24">
       <c r="C29" s="1" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="F29" s="1" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
     </row>
     <row r="30" spans="2:6" ht="24">
       <c r="C30" s="1" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="F30" s="1" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
     </row>
     <row r="31" spans="2:6" ht="24">
       <c r="C31" s="1" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="F31" s="1" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
     </row>
     <row r="32" spans="2:6" ht="24">
       <c r="C32" s="1" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="F32" s="1" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
     </row>
     <row r="33" spans="1:7" ht="24">
       <c r="C33" s="1" t="s">
-        <v>14</v>
+        <v>63</v>
       </c>
       <c r="F33" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="34" spans="1:7" ht="24">
       <c r="C34" s="1" t="s">
-        <v>65</v>
+        <v>17</v>
       </c>
       <c r="F34" s="1" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="35" spans="1:7" ht="24">
       <c r="C35" s="1" t="s">
-        <v>17</v>
+        <v>64</v>
       </c>
       <c r="F35" s="1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="36" spans="1:7" ht="24">
       <c r="C36" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="F36" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="F36" s="1" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="37" spans="1:7" ht="24">
-      <c r="C37" s="1" t="s">
+    </row>
+    <row r="37" spans="1:7" ht="24" customHeight="1">
+      <c r="A37" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="F37" s="1" t="s">
+    </row>
+    <row r="38" spans="1:7" ht="48">
+      <c r="B38" s="1" t="s">
         <v>68</v>
       </c>
-    </row>
-    <row r="38" spans="1:7" ht="24" customHeight="1">
-      <c r="A38" s="1" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="39" spans="1:7" ht="48">
+      <c r="G38" s="1" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7" ht="24">
       <c r="B39" s="1" t="s">
-        <v>70</v>
+        <v>20</v>
       </c>
       <c r="G39" s="1" t="s">
-        <v>72</v>
+        <v>21</v>
       </c>
     </row>
     <row r="40" spans="1:7" ht="24">
       <c r="B40" s="1" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="G40" s="1" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
     </row>
     <row r="41" spans="1:7" ht="24">
       <c r="B41" s="1" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="G41" s="1" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="42" spans="1:7" ht="24">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7" ht="48">
       <c r="B42" s="1" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="G42" s="1" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="43" spans="1:7" ht="48">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7" ht="24">
       <c r="B43" s="1" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="G43" s="1" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
     </row>
     <row r="44" spans="1:7" ht="24">
       <c r="B44" s="1" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="G44" s="1" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="45" spans="1:7" ht="24">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7" ht="48">
       <c r="B45" s="1" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="G45" s="1" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="46" spans="1:7" ht="48">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7" ht="24">
       <c r="B46" s="1" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="G46" s="1" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
     </row>
     <row r="47" spans="1:7" ht="24">
       <c r="B47" s="1" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="G47" s="1" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
     </row>
     <row r="48" spans="1:7" ht="24">
       <c r="B48" s="1" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="G48" s="1" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
     </row>
     <row r="49" spans="2:7" ht="24">
       <c r="B49" s="1" t="s">
-        <v>38</v>
+        <v>69</v>
       </c>
       <c r="G49" s="1" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="50" spans="2:7" ht="24">
-      <c r="B50" s="1" t="s">
         <v>71</v>
-      </c>
-      <c r="G50" s="1" t="s">
-        <v>73</v>
       </c>
     </row>
   </sheetData>

--- a/public/MENU_DATA.xlsx
+++ b/public/MENU_DATA.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kang-seokmin/MyProjects/base-nextjs/public/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A673C0ED-582B-354F-8D97-D02BA8579E74}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F296C5EA-FD5D-E746-9715-390B7AD980C5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-38400" yWindow="500" windowWidth="38400" windowHeight="21100" xr2:uid="{546758EE-569E-9D45-A59F-0BD70D00A04F}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="107" uniqueCount="93">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="99" uniqueCount="85">
   <si>
     <t>D_1</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -64,63 +64,24 @@
     <t>Swiperjs</t>
   </si>
   <si>
-    <t>_pub_swiper</t>
-  </si>
-  <si>
-    <t>Accordion</t>
-  </si>
-  <si>
-    <t>_pub_accordion</t>
-  </si>
-  <si>
     <t>AOS</t>
   </si>
   <si>
-    <t>_pub_aos</t>
-  </si>
-  <si>
     <t>Plyr</t>
   </si>
   <si>
-    <t>_pub_plyr</t>
-  </si>
-  <si>
     <t>AutoComplete.js</t>
   </si>
   <si>
-    <t>_pub_auto_complete</t>
-  </si>
-  <si>
-    <t>_pub_particles</t>
-  </si>
-  <si>
     <t>SortableJS</t>
   </si>
   <si>
-    <t>_pub_sortablejs</t>
-  </si>
-  <si>
-    <t>_pub_flatpickr</t>
-  </si>
-  <si>
     <t>Swiper - 슬라이드</t>
   </si>
   <si>
     <t>https://swiperjs.com/</t>
   </si>
   <si>
-    <t>카카오맵</t>
-  </si>
-  <si>
-    <t>https://apis.map.kakao.com/web/guide/</t>
-  </si>
-  <si>
-    <t>Accordion - 아코디언</t>
-  </si>
-  <si>
-    <t>https://michu2k.github.io/Accordion/</t>
-  </si>
-  <si>
     <t>AOS - 스크롤 반응 애니메이션</t>
   </si>
   <si>
@@ -139,12 +100,6 @@
     <t>https://tarekraafat.github.io/autoComplete.js/#/</t>
   </si>
   <si>
-    <t>panzoom - 확대, 축소, 드래그 스크롤</t>
-  </si>
-  <si>
-    <t>https://timmywil.com/panzoom/</t>
-  </si>
-  <si>
     <t>particles.js - 파티클</t>
   </si>
   <si>
@@ -242,9 +197,6 @@
     <t>FontAwesome</t>
   </si>
   <si>
-    <t>_pub_fontawesome</t>
-  </si>
-  <si>
     <t>라이브러리 공식 홈페이지</t>
   </si>
   <si>
@@ -339,6 +291,38 @@
   </si>
   <si>
     <t>bottom_sheet</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>swiper</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>aos</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>plyr</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>auto_complete</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>particles</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>sortablejs</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>flatpickr</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>fontawesome</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -714,11 +698,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{54B6F5C6-AA51-F848-B9AA-E825AB773646}">
-  <dimension ref="A1:G49"/>
+  <dimension ref="A1:G45"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A9" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G25" sqref="G25"/>
+      <pane ySplit="1" topLeftCell="A25" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E41" sqref="E41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="23"/>
@@ -741,10 +725,10 @@
         <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>47</v>
+        <v>32</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>75</v>
+        <v>59</v>
       </c>
       <c r="F1" s="1" t="s">
         <v>3</v>
@@ -755,220 +739,220 @@
     </row>
     <row r="2" spans="1:7" ht="24">
       <c r="A2" s="1" t="s">
-        <v>43</v>
+        <v>28</v>
       </c>
     </row>
     <row r="3" spans="1:7" ht="24">
       <c r="B3" s="1" t="s">
-        <v>43</v>
+        <v>28</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>77</v>
+        <v>61</v>
       </c>
     </row>
     <row r="4" spans="1:7" ht="24">
       <c r="A4" s="1" t="s">
-        <v>41</v>
+        <v>26</v>
       </c>
     </row>
     <row r="5" spans="1:7" ht="24">
       <c r="B5" s="1" t="s">
-        <v>41</v>
+        <v>26</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>42</v>
+        <v>27</v>
       </c>
     </row>
     <row r="6" spans="1:7" ht="24">
       <c r="A6" s="1" t="s">
-        <v>72</v>
+        <v>56</v>
       </c>
     </row>
     <row r="7" spans="1:7" ht="24">
       <c r="B7" s="1" t="s">
-        <v>73</v>
+        <v>57</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>76</v>
+        <v>60</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>74</v>
+        <v>58</v>
       </c>
     </row>
     <row r="8" spans="1:7" ht="24">
       <c r="A8" s="1" t="s">
-        <v>40</v>
+        <v>25</v>
       </c>
     </row>
     <row r="9" spans="1:7" ht="24">
       <c r="B9" s="1" t="s">
-        <v>44</v>
+        <v>29</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>81</v>
+        <v>65</v>
       </c>
     </row>
     <row r="10" spans="1:7" ht="24">
       <c r="B10" s="1" t="s">
-        <v>45</v>
+        <v>30</v>
       </c>
     </row>
     <row r="11" spans="1:7" ht="24">
       <c r="C11" s="1" t="s">
-        <v>46</v>
+        <v>31</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>79</v>
+        <v>63</v>
       </c>
       <c r="F11" s="1" t="s">
-        <v>84</v>
+        <v>68</v>
       </c>
     </row>
     <row r="12" spans="1:7" ht="24">
       <c r="C12" s="1" t="s">
-        <v>48</v>
+        <v>33</v>
       </c>
     </row>
     <row r="13" spans="1:7" ht="24">
       <c r="D13" s="1" t="s">
-        <v>49</v>
+        <v>34</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>79</v>
+        <v>63</v>
       </c>
       <c r="F13" s="1" t="s">
-        <v>82</v>
+        <v>66</v>
       </c>
     </row>
     <row r="14" spans="1:7" ht="24">
       <c r="D14" s="1" t="s">
-        <v>50</v>
+        <v>35</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>79</v>
+        <v>63</v>
       </c>
       <c r="F14" s="1" t="s">
-        <v>83</v>
+        <v>67</v>
       </c>
     </row>
     <row r="15" spans="1:7" ht="24">
       <c r="C15" s="1" t="s">
-        <v>51</v>
+        <v>36</v>
       </c>
     </row>
     <row r="16" spans="1:7" ht="24">
       <c r="D16" s="1" t="s">
-        <v>52</v>
+        <v>37</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>79</v>
+        <v>63</v>
       </c>
       <c r="F16" s="1" t="s">
-        <v>89</v>
+        <v>73</v>
       </c>
     </row>
     <row r="17" spans="2:6" ht="24">
       <c r="D17" s="1" t="s">
-        <v>53</v>
+        <v>38</v>
       </c>
       <c r="E17" s="1" t="s">
-        <v>79</v>
+        <v>63</v>
       </c>
       <c r="F17" s="1" t="s">
-        <v>85</v>
+        <v>69</v>
       </c>
     </row>
     <row r="18" spans="2:6" ht="24">
       <c r="D18" s="1" t="s">
-        <v>54</v>
+        <v>39</v>
       </c>
       <c r="E18" s="1" t="s">
-        <v>79</v>
+        <v>63</v>
       </c>
       <c r="F18" s="1" t="s">
-        <v>86</v>
+        <v>70</v>
       </c>
     </row>
     <row r="19" spans="2:6" ht="24">
       <c r="D19" s="1" t="s">
-        <v>55</v>
+        <v>40</v>
       </c>
       <c r="E19" s="1" t="s">
-        <v>79</v>
+        <v>63</v>
       </c>
       <c r="F19" s="1" t="s">
-        <v>87</v>
+        <v>71</v>
       </c>
     </row>
     <row r="20" spans="2:6" ht="24">
       <c r="D20" s="1" t="s">
-        <v>56</v>
+        <v>41</v>
       </c>
       <c r="E20" s="1" t="s">
-        <v>79</v>
+        <v>63</v>
       </c>
       <c r="F20" s="1" t="s">
-        <v>80</v>
+        <v>64</v>
       </c>
     </row>
     <row r="21" spans="2:6" ht="24">
       <c r="D21" s="1" t="s">
-        <v>57</v>
+        <v>42</v>
       </c>
       <c r="E21" s="1" t="s">
-        <v>79</v>
+        <v>63</v>
       </c>
       <c r="F21" s="1" t="s">
-        <v>88</v>
+        <v>72</v>
       </c>
     </row>
     <row r="22" spans="2:6" ht="24">
       <c r="C22" s="1" t="s">
-        <v>58</v>
+        <v>43</v>
       </c>
     </row>
     <row r="23" spans="2:6" ht="24">
       <c r="D23" s="1" t="s">
-        <v>59</v>
+        <v>44</v>
       </c>
       <c r="E23" s="1" t="s">
-        <v>79</v>
+        <v>63</v>
       </c>
       <c r="F23" s="1" t="s">
-        <v>78</v>
+        <v>62</v>
       </c>
     </row>
     <row r="24" spans="2:6" ht="24">
       <c r="D24" s="1" t="s">
-        <v>60</v>
+        <v>45</v>
       </c>
       <c r="E24" s="1" t="s">
-        <v>79</v>
+        <v>63</v>
       </c>
       <c r="F24" s="1" t="s">
-        <v>90</v>
+        <v>74</v>
       </c>
     </row>
     <row r="25" spans="2:6" ht="24">
       <c r="D25" s="1" t="s">
-        <v>61</v>
+        <v>46</v>
       </c>
       <c r="E25" s="1" t="s">
-        <v>79</v>
+        <v>63</v>
       </c>
       <c r="F25" s="1" t="s">
-        <v>91</v>
+        <v>75</v>
       </c>
     </row>
     <row r="26" spans="2:6" ht="24">
       <c r="D26" s="1" t="s">
-        <v>62</v>
+        <v>47</v>
       </c>
       <c r="E26" s="1" t="s">
-        <v>79</v>
+        <v>63</v>
       </c>
       <c r="F26" s="1" t="s">
-        <v>92</v>
+        <v>76</v>
       </c>
     </row>
     <row r="27" spans="2:6" ht="24">
@@ -981,172 +965,140 @@
         <v>6</v>
       </c>
       <c r="F28" s="1" t="s">
-        <v>7</v>
+        <v>77</v>
       </c>
     </row>
     <row r="29" spans="2:6" ht="24">
       <c r="C29" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F29" s="1" t="s">
-        <v>9</v>
+        <v>78</v>
       </c>
     </row>
     <row r="30" spans="2:6" ht="24">
       <c r="C30" s="1" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="F30" s="1" t="s">
-        <v>11</v>
+        <v>79</v>
       </c>
     </row>
     <row r="31" spans="2:6" ht="24">
       <c r="C31" s="1" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="F31" s="1" t="s">
-        <v>13</v>
+        <v>80</v>
       </c>
     </row>
     <row r="32" spans="2:6" ht="24">
       <c r="C32" s="1" t="s">
-        <v>14</v>
+        <v>48</v>
       </c>
       <c r="F32" s="1" t="s">
-        <v>15</v>
+        <v>81</v>
       </c>
     </row>
     <row r="33" spans="1:7" ht="24">
       <c r="C33" s="1" t="s">
-        <v>63</v>
+        <v>10</v>
       </c>
       <c r="F33" s="1" t="s">
-        <v>16</v>
+        <v>82</v>
       </c>
     </row>
     <row r="34" spans="1:7" ht="24">
       <c r="C34" s="1" t="s">
-        <v>17</v>
+        <v>49</v>
       </c>
       <c r="F34" s="1" t="s">
-        <v>18</v>
+        <v>83</v>
       </c>
     </row>
     <row r="35" spans="1:7" ht="24">
       <c r="C35" s="1" t="s">
-        <v>64</v>
+        <v>50</v>
       </c>
       <c r="F35" s="1" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="36" spans="1:7" ht="24">
-      <c r="C36" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="F36" s="1" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="37" spans="1:7" ht="24" customHeight="1">
-      <c r="A37" s="1" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="38" spans="1:7" ht="48">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7" ht="24" customHeight="1">
+      <c r="A36" s="1" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7" ht="48">
+      <c r="B37" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="G37" s="1" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7" ht="24">
       <c r="B38" s="1" t="s">
-        <v>68</v>
+        <v>11</v>
       </c>
       <c r="G38" s="1" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="39" spans="1:7" ht="24">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7" ht="48">
       <c r="B39" s="1" t="s">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="G39" s="1" t="s">
-        <v>21</v>
+        <v>14</v>
       </c>
     </row>
     <row r="40" spans="1:7" ht="24">
       <c r="B40" s="1" t="s">
-        <v>22</v>
+        <v>15</v>
       </c>
       <c r="G40" s="1" t="s">
-        <v>23</v>
+        <v>16</v>
       </c>
     </row>
     <row r="41" spans="1:7" ht="24">
       <c r="B41" s="1" t="s">
-        <v>24</v>
+        <v>17</v>
       </c>
       <c r="G41" s="1" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="42" spans="1:7" ht="48">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7" ht="24">
       <c r="B42" s="1" t="s">
-        <v>26</v>
+        <v>19</v>
       </c>
       <c r="G42" s="1" t="s">
-        <v>27</v>
+        <v>20</v>
       </c>
     </row>
     <row r="43" spans="1:7" ht="24">
       <c r="B43" s="1" t="s">
-        <v>28</v>
+        <v>21</v>
       </c>
       <c r="G43" s="1" t="s">
-        <v>29</v>
+        <v>22</v>
       </c>
     </row>
     <row r="44" spans="1:7" ht="24">
       <c r="B44" s="1" t="s">
-        <v>30</v>
+        <v>23</v>
       </c>
       <c r="G44" s="1" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="45" spans="1:7" ht="48">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7" ht="24">
       <c r="B45" s="1" t="s">
-        <v>32</v>
+        <v>53</v>
       </c>
       <c r="G45" s="1" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="46" spans="1:7" ht="24">
-      <c r="B46" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="G46" s="1" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="47" spans="1:7" ht="24">
-      <c r="B47" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="G47" s="1" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="48" spans="1:7" ht="24">
-      <c r="B48" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="G48" s="1" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="49" spans="2:7" ht="24">
-      <c r="B49" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="G49" s="1" t="s">
-        <v>71</v>
+        <v>55</v>
       </c>
     </row>
   </sheetData>
